--- a/i_codebooks/D5_Table_7_cumulative_incidence_{ImmDis}.xlsx
+++ b/i_codebooks/D5_Table_7_cumulative_incidence_{ImmDis}.xlsx
@@ -18,8 +18,7 @@
     <sheet name="Augmented shell table" sheetId="3" r:id="rId4"/>
     <sheet name="Example" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913" iterateDelta="1E-4"/>
-  <fileRecoveryPr repairLoad="1"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="102">
   <si>
     <t>metadata_content</t>
   </si>
@@ -245,9 +244,6 @@
   </si>
   <si>
     <t>period when the cumulative incidence is calculated</t>
-  </si>
-  <si>
-    <t>inetger</t>
   </si>
   <si>
     <t>1 = 180 days
@@ -285,6 +281,65 @@
   </si>
   <si>
     <t>0.789</t>
+  </si>
+  <si>
+    <t>ageband</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>&lt;18</t>
+  </si>
+  <si>
+    <t>18-59</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>c_1_0_all (ll_1_0_all - ul_1_ 0_all)</t>
+  </si>
+  <si>
+    <t>60+</t>
+  </si>
+  <si>
+    <t>c_1_18_all (ll_1_18_all - ul_1_18_all)</t>
+  </si>
+  <si>
+    <t>c_1_60_all (ll_1_60_all - ul_1_60_all)</t>
+  </si>
+  <si>
+    <t>c_2_18_all (ll_2_18_all - ul_2_18_all)</t>
+  </si>
+  <si>
+    <t>c_2_0_all (ll_2_0_all - ul_2_ 0_all)</t>
+  </si>
+  <si>
+    <t>c_2_60_all (ll_2_60_all - ul_2_60_all)</t>
+  </si>
+  <si>
+    <t>integer</t>
+  </si>
+  <si>
+    <t>0 = "&lt;18"
+18 = "18-59"
+60 = "60+"
+99 = "all"</t>
+  </si>
+  <si>
+    <t>female</t>
+  </si>
+  <si>
+    <t>F = "Female"
+M = "Male"
+all = "All"</t>
   </si>
 </sst>
 </file>
@@ -411,7 +466,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -459,6 +514,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,13 +895,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W8"/>
+  <dimension ref="A1:P10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:A5"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
@@ -862,7 +920,7 @@
     <col min="12" max="16384" width="8.6640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15.6">
+    <row r="1" spans="1:16" ht="15.6">
       <c r="A1" s="12" t="s">
         <v>10</v>
       </c>
@@ -901,15 +959,8 @@
       <c r="N1" s="15"/>
       <c r="O1" s="15"/>
       <c r="P1" s="15"/>
-      <c r="Q1" s="15"/>
-      <c r="R1" s="15"/>
-      <c r="S1" s="15"/>
-      <c r="T1" s="15"/>
-      <c r="U1" s="15"/>
-      <c r="V1" s="15"/>
-      <c r="W1" s="15"/>
-    </row>
-    <row r="2" spans="1:23" ht="31.2">
+    </row>
+    <row r="2" spans="1:16" ht="31.2">
       <c r="A2" s="15" t="s">
         <v>67</v>
       </c>
@@ -917,11 +968,11 @@
         <v>71</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="D2" s="14"/>
       <c r="E2" s="17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="14"/>
@@ -934,93 +985,70 @@
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
       <c r="P2" s="15"/>
-      <c r="Q2" s="15"/>
-      <c r="R2" s="15"/>
-      <c r="S2" s="15"/>
-      <c r="T2" s="15"/>
-      <c r="U2" s="15"/>
-      <c r="V2" s="15"/>
-      <c r="W2" s="15"/>
-    </row>
-    <row r="3" spans="1:23" ht="15.6">
-      <c r="A3" s="15" t="s">
+    </row>
+    <row r="3" spans="1:16" ht="60.6">
+      <c r="A3" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C3" s="22"/>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22" t="s">
+        <v>99</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="22"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
+      <c r="M3" s="22"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+    </row>
+    <row r="4" spans="1:16" ht="45.6">
+      <c r="A4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>101</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+    </row>
+    <row r="5" spans="1:16" ht="15.6">
+      <c r="A5" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
-      <c r="W3" s="15"/>
-    </row>
-    <row r="4" spans="1:23" ht="15.6">
-      <c r="A4" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-    </row>
-    <row r="5" spans="1:23" ht="15.6">
-      <c r="A5" s="15" t="s">
-        <v>70</v>
-      </c>
       <c r="B5" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>76</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>77</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
@@ -1033,20 +1061,21 @@
       <c r="N5" s="15"/>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-    </row>
-    <row r="6" spans="1:23" ht="15.6">
-      <c r="A6" s="15"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="15"/>
+    </row>
+    <row r="6" spans="1:16" ht="15.6">
+      <c r="A6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
+      <c r="E6" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
@@ -1058,16 +1087,53 @@
       <c r="N6" s="15"/>
       <c r="O6" s="15"/>
       <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="15"/>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-    </row>
-    <row r="8" spans="1:23">
-      <c r="B8" s="20"/>
+    </row>
+    <row r="7" spans="1:16" ht="15.6">
+      <c r="A7" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="15"/>
+      <c r="N7" s="15"/>
+      <c r="O7" s="15"/>
+      <c r="P7" s="15"/>
+    </row>
+    <row r="8" spans="1:16" ht="15.6">
+      <c r="A8" s="15"/>
+      <c r="B8" s="19"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="15"/>
+      <c r="N8" s="15"/>
+      <c r="O8" s="15"/>
+      <c r="P8" s="15"/>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="B10" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1262,68 +1328,286 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L3"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="45.6640625" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="30.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6">
-      <c r="A1" s="10"/>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:14" ht="15.6">
+      <c r="A1" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="L1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="M1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.6">
+    <row r="2" spans="1:14" ht="15.6">
       <c r="A2" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.6">
+    <row r="3" spans="1:14" ht="15.6">
       <c r="A3" s="6" t="s">
         <v>64</v>
       </c>
       <c r="B3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="15.6">
+      <c r="A4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="15.6">
+      <c r="A5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="15.6">
+      <c r="A6" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="15.6">
+      <c r="A7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="15.6">
+      <c r="A8" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15.6">
+      <c r="A9" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.6">
+      <c r="A10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="15.6">
+      <c r="A11" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" ht="15.6">
+      <c r="A12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15.6">
+      <c r="A13" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="15.6">
+      <c r="A14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="15.6">
+      <c r="A15" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="15.6">
+      <c r="A16" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.6">
+      <c r="A17" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.6">
+      <c r="A18" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.6">
+      <c r="A19" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -1334,58 +1618,516 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="23.44140625" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
+    <col min="1" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="11.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.6">
+    <row r="1" spans="1:6" ht="15.6">
       <c r="A1" s="15" t="s">
         <v>67</v>
       </c>
       <c r="B1" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>79</v>
+      <c r="B2">
+        <v>99</v>
       </c>
       <c r="C2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F2" t="s">
         <v>81</v>
       </c>
-      <c r="D2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="F3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E4" t="s">
         <v>80</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F5" t="s">
         <v>83</v>
       </c>
-      <c r="D3" t="s">
-        <v>84</v>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>60</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D11" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F11" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D12" t="s">
+        <v>78</v>
+      </c>
+      <c r="E12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F12" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
+      <c r="F15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" t="s">
+        <v>78</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>89</v>
+      </c>
+      <c r="D19" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" t="s">
+        <v>80</v>
+      </c>
+      <c r="F20" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>60</v>
+      </c>
+      <c r="C22" t="s">
+        <v>89</v>
+      </c>
+      <c r="D22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>89</v>
+      </c>
+      <c r="D23" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" t="s">
+        <v>82</v>
+      </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>60</v>
+      </c>
+      <c r="C24" t="s">
+        <v>90</v>
+      </c>
+      <c r="D24" t="s">
+        <v>78</v>
+      </c>
+      <c r="E24" t="s">
+        <v>80</v>
+      </c>
+      <c r="F24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>60</v>
+      </c>
+      <c r="C25" t="s">
+        <v>90</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
